--- a/biology/Médecine/Glotte/Glotte.xlsx
+++ b/biology/Médecine/Glotte/Glotte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La glotte est le segment du larynx, en dessous du vestibule et au-dessus de la cavité épiglottique, qui comprend les deux plis vocaux. En phonétique articulatoire, un son produit au niveau de la glotte est dit glottal (comme le coup de glotte), de même qu'un flux d'air créé par une dépression ou une surpression entre la glotte fermée et une partie de la bouche (voir Flux glottal).
 La glotte est souvent confondue, dans le langage courant, avec l'uvule (ou luette), celle-ci étant un appendice conique situé au fond de la cavité buccale et proche des tonsilles palatines.
